--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9335" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9335" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="classroomLt" sheetId="1" r:id="rId1"/>
     <sheet name="classroomTh" sheetId="2" r:id="rId2"/>
     <sheet name="registrationClass" sheetId="3" r:id="rId3"/>
     <sheet name="subject" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="date" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -83,7 +83,7 @@
     <t>214464-01</t>
   </si>
   <si>
-    <t>AnToanBaoMat1</t>
+    <t>An toàn và bảo mật hệ thống thông tin</t>
   </si>
   <si>
     <t>DH19DT</t>
@@ -92,7 +92,7 @@
     <t>214462-01</t>
   </si>
   <si>
-    <t>Ltw</t>
+    <t>Lập trình web</t>
   </si>
   <si>
     <t>214462-02</t>
@@ -104,13 +104,13 @@
     <t>214379-01</t>
   </si>
   <si>
-    <t>KiemThu</t>
+    <t>Đảm bảo chất lượng và kiểm thử phần mềm</t>
   </si>
   <si>
     <t>214361-20</t>
   </si>
   <si>
-    <t>GiaoTiepNM</t>
+    <t>Giao tiếp người máy</t>
   </si>
   <si>
     <t>214361-21</t>
@@ -122,7 +122,7 @@
     <t>214389-20</t>
   </si>
   <si>
-    <t>ToanToiRac</t>
+    <t>Toán rời rạc</t>
   </si>
   <si>
     <t>DH21DT</t>
@@ -137,19 +137,19 @@
     <t>214491-01</t>
   </si>
   <si>
-    <t>DataWarehouse</t>
+    <t>Data Warehouse</t>
   </si>
   <si>
     <t>214485-01</t>
   </si>
   <si>
-    <t>DataMining</t>
+    <t>Data Mining</t>
   </si>
   <si>
     <t>214201-20</t>
   </si>
   <si>
-    <t>NhapMonTinHoc</t>
+    <t>Nhập môn tin học</t>
   </si>
   <si>
     <t>214201-21</t>
@@ -164,13 +164,13 @@
     <t>214271-01</t>
   </si>
   <si>
-    <t>QuanTriMang</t>
+    <t>Quản trị mạng</t>
   </si>
   <si>
     <t>214241-01</t>
   </si>
   <si>
-    <t>MangCoBan</t>
+    <t>Mạng cơ bản</t>
   </si>
   <si>
     <t>DH20DT</t>
@@ -185,7 +185,7 @@
     <t>214321-20</t>
   </si>
   <si>
-    <t>LtCoBan</t>
+    <t>Lập trình cơ bản</t>
   </si>
   <si>
     <t>214321-21</t>
@@ -200,7 +200,7 @@
     <t>214483-01</t>
   </si>
   <si>
-    <t>TMDT</t>
+    <t>Thương mại điện tử</t>
   </si>
   <si>
     <t>214463-01</t>
@@ -218,25 +218,25 @@
     <t>214451-01</t>
   </si>
   <si>
-    <t>HeQuanTriCSDL</t>
+    <t>Hệ quản trị cơ sở dữ liệu</t>
   </si>
   <si>
     <t>214353-01</t>
   </si>
   <si>
-    <t>DoHoaMT</t>
+    <t>Đồ họa máy tính</t>
   </si>
   <si>
     <t>214372-01</t>
   </si>
   <si>
-    <t>DOTNET</t>
+    <t>Lập trình DOTNET</t>
   </si>
   <si>
     <t>214252-01</t>
   </si>
   <si>
-    <t>Ltm</t>
+    <t>Lập trình mạng</t>
   </si>
   <si>
     <t>214252-02</t>
@@ -248,7 +248,7 @@
     <t>214441-01</t>
   </si>
   <si>
-    <t>CauTrucDuLieu</t>
+    <t>Cấu trúc dữ liệu</t>
   </si>
   <si>
     <t>214441-02</t>
@@ -260,28 +260,22 @@
     <t>214383-01</t>
   </si>
   <si>
-    <t>QuanLiDuAn</t>
-  </si>
-  <si>
-    <t>Subject Id</t>
-  </si>
-  <si>
-    <t>subject name</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>type</t>
+    <t>Quản lý dự án phần mềm</t>
+  </si>
+  <si>
+    <t>Subject id</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
   <si>
     <t>Exam time</t>
   </si>
   <si>
     <t>Lesson time</t>
-  </si>
-  <si>
-    <t>AnToanBaoMat</t>
   </si>
   <si>
     <t>Exam date</t>
@@ -320,8 +314,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -330,6 +324,22 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,25 +359,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,21 +383,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,8 +412,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,34 +456,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -486,37 +480,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,145 +660,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,11 +674,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,26 +730,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,9 +763,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,15 +776,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,130 +794,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1360,7 +1354,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1482,14 +1476,14 @@
   <sheetPr/>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="40.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="15.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="11.6666666666667" customWidth="1"/>
@@ -2428,13 +2422,14 @@
   <sheetPr/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="4" max="4" width="5.55555555555556" customWidth="1"/>
     <col min="5" max="5" width="10.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="10.8888888888889" customWidth="1"/>
   </cols>
@@ -2444,19 +2439,19 @@
         <v>81</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>85</v>
-      </c>
-      <c r="F1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2464,7 +2459,7 @@
         <v>214464</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -2851,7 +2846,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2861,52 +2856,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9335" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9335" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="classroomLt" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="registrationClass" sheetId="3" r:id="rId3"/>
     <sheet name="subject" sheetId="4" r:id="rId4"/>
     <sheet name="date" sheetId="5" r:id="rId5"/>
+    <sheet name="academyYear" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="99">
   <si>
     <t>ID</t>
   </si>
@@ -306,6 +307,15 @@
   </si>
   <si>
     <t>2022-10-20</t>
+  </si>
+  <si>
+    <t>2022-10-21</t>
+  </si>
+  <si>
+    <t>Academy year</t>
+  </si>
+  <si>
+    <t>semester</t>
   </si>
 </sst>
 </file>
@@ -313,10 +323,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -327,17 +337,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,8 +351,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,6 +383,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -383,6 +400,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,6 +436,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -412,37 +451,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,7 +467,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,7 +475,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,13 +490,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,169 +604,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,17 +684,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,26 +732,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,6 +748,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,31 +781,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,130 +804,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1476,8 +1486,8 @@
   <sheetPr/>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2422,7 +2432,7 @@
   <sheetPr/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -2843,10 +2853,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2904,6 +2914,47 @@
         <v>95</v>
       </c>
     </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="13.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2019</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\nlu\project\tot-nghiep\schedule-service\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9335" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9336" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="classroomLt" sheetId="1" r:id="rId1"/>
@@ -321,14 +326,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,346 +335,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -683,251 +352,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -939,61 +366,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1251,25 +634,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="15.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="14.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="9.44444444444444" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1354,25 +737,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="15.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="14.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1477,28 +858,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="40.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="15.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="11.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="3.66666666666667" customWidth="1"/>
-    <col min="7" max="7" width="10.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2423,25 +1802,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="4" max="4" width="5.55555555555556" customWidth="1"/>
-    <col min="5" max="5" width="10.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="10.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2846,22 +2223,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.4444444444444"/>
+    <col min="1" max="1" width="11.44140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2921,22 +2296,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2949,7 +2322,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2957,6 +2330,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9336" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9336" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="classroomLt" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>Grade name</t>
   </si>
   <si>
-    <t>Semester id</t>
-  </si>
-  <si>
     <t>214464-01</t>
   </si>
   <si>
@@ -321,6 +318,9 @@
   </si>
   <si>
     <t>semester</t>
+  </si>
+  <si>
+    <t>Grade id</t>
   </si>
 </sst>
 </file>
@@ -643,7 +643,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -865,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -900,15 +900,15 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
       </c>
       <c r="C2">
         <v>80</v>
@@ -917,7 +917,7 @@
         <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -928,10 +928,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
       </c>
       <c r="C3">
         <v>80</v>
@@ -940,7 +940,7 @@
         <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -951,10 +951,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>80</v>
@@ -963,7 +963,7 @@
         <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -974,10 +974,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>80</v>
@@ -986,7 +986,7 @@
         <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -997,10 +997,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
       </c>
       <c r="C6">
         <v>80</v>
@@ -1009,7 +1009,7 @@
         <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
       </c>
       <c r="C7">
         <v>90</v>
@@ -1032,7 +1032,7 @@
         <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>90</v>
@@ -1055,7 +1055,7 @@
         <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -1066,10 +1066,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>90</v>
@@ -1078,7 +1078,7 @@
         <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
         <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
       </c>
       <c r="C10">
         <v>90</v>
@@ -1101,7 +1101,7 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -1112,10 +1112,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11">
         <v>90</v>
@@ -1124,7 +1124,7 @@
         <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>90</v>
@@ -1147,7 +1147,7 @@
         <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -1158,10 +1158,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
         <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
       </c>
       <c r="C13">
         <v>80</v>
@@ -1170,7 +1170,7 @@
         <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
         <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
       </c>
       <c r="C14">
         <v>80</v>
@@ -1193,7 +1193,7 @@
         <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -1204,10 +1204,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
         <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
       </c>
       <c r="C15">
         <v>80</v>
@@ -1216,7 +1216,7 @@
         <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15">
         <v>14</v>
@@ -1227,10 +1227,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>80</v>
@@ -1239,7 +1239,7 @@
         <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17">
         <v>80</v>
@@ -1262,7 +1262,7 @@
         <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17">
         <v>16</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18">
         <v>80</v>
@@ -1285,7 +1285,7 @@
         <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18">
         <v>17</v>
@@ -1296,10 +1296,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
         <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
       </c>
       <c r="C19">
         <v>50</v>
@@ -1308,7 +1308,7 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19">
         <v>18</v>
@@ -1319,10 +1319,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
         <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
       </c>
       <c r="C20">
         <v>90</v>
@@ -1331,7 +1331,7 @@
         <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20">
         <v>19</v>
@@ -1342,10 +1342,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21">
         <v>90</v>
@@ -1354,7 +1354,7 @@
         <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21">
         <v>20</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22">
         <v>90</v>
@@ -1377,7 +1377,7 @@
         <v>92</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22">
         <v>21</v>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
         <v>54</v>
-      </c>
-      <c r="B23" t="s">
-        <v>55</v>
       </c>
       <c r="C23">
         <v>80</v>
@@ -1400,7 +1400,7 @@
         <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23">
         <v>22</v>
@@ -1411,10 +1411,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24">
         <v>80</v>
@@ -1423,7 +1423,7 @@
         <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24">
         <v>23</v>
@@ -1434,10 +1434,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25">
         <v>80</v>
@@ -1446,7 +1446,7 @@
         <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F25">
         <v>24</v>
@@ -1457,10 +1457,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26">
         <v>80</v>
@@ -1469,7 +1469,7 @@
         <v>98</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26">
         <v>25</v>
@@ -1480,10 +1480,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
         <v>59</v>
-      </c>
-      <c r="B27" t="s">
-        <v>60</v>
       </c>
       <c r="C27">
         <v>80</v>
@@ -1492,7 +1492,7 @@
         <v>87</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27">
         <v>26</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
         <v>61</v>
-      </c>
-      <c r="B28" t="s">
-        <v>62</v>
       </c>
       <c r="C28">
         <v>80</v>
@@ -1515,7 +1515,7 @@
         <v>85</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28">
         <v>27</v>
@@ -1526,10 +1526,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29">
         <v>80</v>
@@ -1538,7 +1538,7 @@
         <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F29">
         <v>28</v>
@@ -1549,10 +1549,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30">
         <v>80</v>
@@ -1561,7 +1561,7 @@
         <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F30">
         <v>29</v>
@@ -1572,10 +1572,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
         <v>65</v>
-      </c>
-      <c r="B31" t="s">
-        <v>66</v>
       </c>
       <c r="C31">
         <v>100</v>
@@ -1584,7 +1584,7 @@
         <v>108</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F31">
         <v>30</v>
@@ -1595,10 +1595,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
         <v>67</v>
-      </c>
-      <c r="B32" t="s">
-        <v>68</v>
       </c>
       <c r="C32">
         <v>80</v>
@@ -1607,7 +1607,7 @@
         <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F32">
         <v>31</v>
@@ -1618,10 +1618,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
         <v>69</v>
-      </c>
-      <c r="B33" t="s">
-        <v>70</v>
       </c>
       <c r="C33">
         <v>80</v>
@@ -1630,7 +1630,7 @@
         <v>138</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F33">
         <v>32</v>
@@ -1641,10 +1641,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
         <v>71</v>
-      </c>
-      <c r="B34" t="s">
-        <v>72</v>
       </c>
       <c r="C34">
         <v>90</v>
@@ -1653,7 +1653,7 @@
         <v>103</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F34">
         <v>33</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35">
         <v>90</v>
@@ -1676,7 +1676,7 @@
         <v>102</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F35">
         <v>34</v>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36">
         <v>90</v>
@@ -1699,7 +1699,7 @@
         <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F36">
         <v>35</v>
@@ -1710,10 +1710,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
         <v>75</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
       </c>
       <c r="C37">
         <v>90</v>
@@ -1722,7 +1722,7 @@
         <v>97</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -1733,10 +1733,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38">
         <v>90</v>
@@ -1745,7 +1745,7 @@
         <v>95</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38">
         <v>37</v>
@@ -1756,10 +1756,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39">
         <v>90</v>
@@ -1768,7 +1768,7 @@
         <v>96</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F39">
         <v>38</v>
@@ -1779,10 +1779,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
         <v>79</v>
-      </c>
-      <c r="B40" t="s">
-        <v>80</v>
       </c>
       <c r="C40">
         <v>80</v>
@@ -1791,7 +1791,7 @@
         <v>103</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F40">
         <v>39</v>
@@ -1809,8 +1809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1823,22 +1823,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
       <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>83</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>84</v>
-      </c>
-      <c r="F1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>214464</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -1866,7 +1866,7 @@
         <v>214462</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -1875,7 +1875,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -1886,7 +1886,7 @@
         <v>214379</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -1895,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1906,7 +1906,7 @@
         <v>214361</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1915,7 +1915,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1926,7 +1926,7 @@
         <v>214389</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1946,7 +1946,7 @@
         <v>214491</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1966,7 +1966,7 @@
         <v>214485</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -1986,7 +1986,7 @@
         <v>214201</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2006,7 +2006,7 @@
         <v>214271</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2026,7 +2026,7 @@
         <v>214241</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -2046,7 +2046,7 @@
         <v>214321</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -2066,7 +2066,7 @@
         <v>214483</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -2075,7 +2075,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -2086,7 +2086,7 @@
         <v>214463</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -2106,7 +2106,7 @@
         <v>214451</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -2126,7 +2126,7 @@
         <v>214353</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -2146,7 +2146,7 @@
         <v>214372</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -2155,7 +2155,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -2166,7 +2166,7 @@
         <v>214252</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -2186,7 +2186,7 @@
         <v>214441</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -2206,7 +2206,7 @@
         <v>214383</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -2241,57 +2241,57 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2303,7 +2303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2314,10 +2314,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
         <v>97</v>
-      </c>
-      <c r="B1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2">
